--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA178D9E-3097-4C0C-A182-723435519AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9258CE-DFA5-4DCB-B1B0-1249F2596343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2685,10 +2685,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12</t>
-  </si>
-  <si>
-    <t>S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23</t>
+    <t>S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11</t>
+  </si>
+  <si>
+    <t>S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23</v>
+        <v>S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12</v>
+        <v>S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3893,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D2495E-6E78-41A3-BA99-A6ED47E3D8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B16CB6E-8ED8-4D09-830E-99C5BFE7BDE9}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6986,7 +6986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE70DE2-F108-41BF-93B3-B5A6553CE255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9729DD68-4B7F-453D-8228-FCC359C08DAA}">
   <dimension ref="B2:K411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17641,7 +17641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91053DF-BFA5-4518-BC80-B1C3C54E7F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A096679-67F6-486D-914E-F373E18F0CD4}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9258CE-DFA5-4DCB-B1B0-1249F2596343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93489D9C-AF41-4728-A3A0-9B824B55EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -2685,10 +2685,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11</t>
-  </si>
-  <si>
-    <t>S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22</t>
+    <t>S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08</t>
+  </si>
+  <si>
+    <t>S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22</v>
+        <v>S1d0214h21,S1e0401h02,S1g0412h02,S1h0426h23,S1i0427h03,S4j0709h03,S4k0719h01,S5n1017h01,S5n1017h22,S6o1118h02,S6o1118h04,S6o1118h19,S6p1119h01,S1b0113h06,S1c0115h21,S1d0214h20,S1h0426h06,S1h0426h24,S1i0427h01,S4l0818h22,S4m0822h04,S5n1017h02,S5n1017h20,S6o1118h22,S6p1119h19,S1b0113h01,S1b0113h23,S1d0214h19,S1f0406h24,S1g0412h20,S1h0426h05,S4l0818h05,S5n1017h03,S1b0113h04,S1b0113h05,S1b0113h19,S1c0115h03,S1e0401h21,S1f0406h01,S1f0406h06,S1g0412h23,S1h0426h01,S1h0426h02,S1h0426h21,S2aH1,S4j0709h01,S4l0818h04,S5aH8,S6o1118h23,S1b0113h24,S1c0115h22,S1d0214h02,S1d0214h23,S1e0401h20,S1f0406h03,S1i0427h02,S1i0427h05,S4j0709h24,S4k0719h04,S4l0818h01,S5n1017h05,S6aH8,S6o1118h03,S1c0115h01,S1c0115h05,S1f0406h05,S1f0406h20,S1g0412h05,S1g0412h06,S1g0412h21,S1i0427h19,S1i0427h21,S3aH1,S4j0709h05,S4k0719h03,S4k0719h06,S4k0719h22,S6o1118h24,S6p1119h03,S1b0113h22,S1d0214h24,S1e0401h24,S1i0427h22,S2aH8,S4m0822h01,S4m0822h02,S6p1119h06,S6p1119h24,S1c0115h20,S1e0401h06,S1e0401h23,S4j0709h19,S4l0818h06,S4l0818h21,S4l0818h23,S4m0822h06,S5n1017h21,S6p1119h02,S6p1119h20,S1e0401h04,S1e0401h19,S1e0401h22,S1h0426h04,S3aH8,S4k0719h21,S4k0719h23,S6p1119h21,S6p1119h22,S1b0113h20,S1e0401h05,S1f0406h19,S1g0412h22,S4j0709h06,S4j0709h21,S4j0709h23,S4l0818h03,S4m0822h05,S4m0822h19,S4m0822h23,S5n1017h06,S1aH1,S1c0115h24,S1d0214h01,S1g0412h04,S1i0427h04,S1i0427h06,S1i0427h20,S4j0709h02,S4j0709h04,S4j0709h20,S4k0719h20,S4l0818h19,S4m0822h20,S4m0822h22,S4m0822h24,S5n1017h19,S6o1118h05,S1b0113h03,S1b0113h21,S1c0115h19,S1e0401h01,S1e0401h03,S1f0406h02,S1f0406h22,S1g0412h24,S1h0426h03,S1i0427h24,S4j0709h22,S1aH8,S1d0214h06,S1g0412h19,S1h0426h22,S1i0427h23,S4k0719h02,S4k0719h19,S4l0818h24,S5aH1,S5n1017h04,S5n1017h23,S1b0113h02,S1c0115h06,S1d0214h03,S1d0214h22,S1g0412h01,S1h0426h19,S4aH1,S4k0719h05,S6aH1,S6o1118h01,S6o1118h20,S6p1119h23,S1c0115h02,S1d0214h04,S1d0214h05,S1f0406h04,S1f0406h21,S1h0426h20,S4aH8,S4l0818h02,S4l0818h20,S6o1118h06,S6o1118h21,S1c0115h04,S1c0115h23,S1f0406h23,S1g0412h03,S4k0719h24,S4m0822h03,S4m0822h21,S5n1017h24,S6p1119h04,S6p1119h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11</v>
+        <v>S1aH3,S1b0113h07,S1b0113h16,S1c0115h11,S1e0401h08,S1g0412h08,S1g0412h16,S1i0427h17,S4l0818h14,S4m0822h09,S4m0822h15,S6o1118h18,S6p1119h11,S1b0113h08,S1b0113h10,S1c0115h07,S1c0115h09,S4aH5,S4j0709h13,S5n1017h16,S5n1017h17,S1c0115h17,S1e0401h14,S1e0401h18,S1f0406h07,S1g0412h11,S1g0412h15,S1h0426h16,S1i0427h13,S2aH7,S3aH4,S4aH3,S4aH4,S4j0709h15,S4m0822h18,S5n1017h07,S5n1017h09,S1d0214h09,S1e0401h11,S1e0401h16,S1h0426h09,S1h0426h11,S4aH2,S4j0709h10,S4k0719h07,S4k0719h14,S4l0818h11,S5n1017h10,S6o1118h09,S6o1118h17,S6p1119h13,S1aH6,S1b0113h09,S1c0115h08,S1d0214h10,S1f0406h09,S1i0427h09,S4k0719h12,S4k0719h15,S4k0719h16,S4l0818h12,S4l0818h13,S4l0818h15,S6p1119h17,S1i0427h16,S4k0719h10,S4m0822h14,S6aH7,S6o1118h10,S6p1119h07,S1b0113h15,S1b0113h18,S1d0214h11,S1g0412h09,S1h0426h17,S1i0427h18,S3aH7,S4j0709h07,S4j0709h11,S4j0709h16,S4l0818h17,S6o1118h14,S6p1119h08,S6p1119h18,S1b0113h13,S1d0214h13,S1e0401h09,S1e0401h15,S4j0709h14,S4k0719h11,S4k0719h17,S4m0822h13,S4m0822h17,S5aH4,S5n1017h11,S5n1017h14,S6aH3,S6aH4,S6p1119h15,S1b0113h11,S1c0115h18,S1d0214h12,S1e0401h07,S1e0401h10,S1f0406h18,S1g0412h17,S1h0426h10,S1h0426h12,S1h0426h13,S1i0427h10,S3aH2,S4k0719h13,S4l0818h10,S4m0822h10,S1c0115h12,S1e0401h12,S1e0401h17,S1f0406h16,S1g0412h10,S1g0412h13,S1h0426h08,S1h0426h18,S3aH3,S4l0818h07,S4m0822h08,S5n1017h12,S6o1118h13,S6o1118h15,S1d0214h08,S1f0406h08,S1f0406h11,S1h0426h14,S1i0427h12,S4l0818h08,S5n1017h18,S6p1119h16,S1aH5,S1d0214h14,S1d0214h18,S1f0406h13,S1i0427h14,S2aH4,S2aH5,S4j0709h09,S4l0818h16,S4l0818h18,S4m0822h07,S4m0822h12,S4m0822h16,S5aH2,S5aH5,S6aH2,S6o1118h11,S1c0115h15,S1d0214h07,S1d0214h16,S1e0401h13,S1g0412h14,S1i0427h07,S1i0427h11,S1i0427h15,S2aH6,S3aH5,S4j0709h17,S5aH3,S5n1017h08,S6p1119h09,S6p1119h12,S1aH4,S1c0115h14,S1d0214h17,S1f0406h12,S1f0406h17,S1g0412h07,S1h0426h15,S2aH2,S4aH6,S4j0709h08,S4j0709h18,S4k0719h08,S4k0719h09,S5n1017h13,S6o1118h12,S6p1119h10,S6p1119h14,S1b0113h12,S1b0113h17,S1c0115h10,S1c0115h13,S1d0214h15,S4j0709h12,S4k0719h18,S6aH5,S6o1118h07,S6o1118h16,S1aH2,S1aH7,S1b0113h14,S1c0115h16,S1f0406h10,S1f0406h14,S1f0406h15,S1g0412h12,S1g0412h18,S1h0426h07,S1i0427h08,S2aH3,S3aH6,S4aH7,S4l0818h09,S4m0822h11,S5aH6,S5aH7,S5n1017h15,S6aH6,S6o1118h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3893,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B16CB6E-8ED8-4D09-830E-99C5BFE7BDE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C652A5-8B80-42C5-9FE1-D049145C4BEB}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6986,7 +6986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9729DD68-4B7F-453D-8228-FCC359C08DAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFF40E2-2CB2-4456-A88E-CF73424F8FFB}">
   <dimension ref="B2:K411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17641,7 +17641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A096679-67F6-486D-914E-F373E18F0CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA14530-7B95-497C-92FF-339AADA63DE1}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
